--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
   <si>
     <t>Amparo de São Francisco</t>
   </si>
@@ -581,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX56"/>
   <sheetViews>
-    <sheetView topLeftCell="BR1" workbookViewId="0">
-      <selection activeCell="BX5" sqref="A2:BX5"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7073,4 +7074,1576 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="10" width="29.140625" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,32 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive\Área de Trabalho\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>Amparo de São Francisco</t>
   </si>
@@ -256,13 +246,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,18 +267,355 @@
       <sz val="10"/>
       <color rgb="FF165516"/>
       <name val="Georgia"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -290,9 +623,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -301,17 +876,61 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -360,7 +979,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +1014,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -569,89 +1188,84 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BX56"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="27.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="11.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="15.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="17.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="11.1428571428571" customWidth="1"/>
+    <col min="12" max="12" width="27.5714285714286" customWidth="1"/>
+    <col min="15" max="15" width="13.1428571428571" customWidth="1"/>
+    <col min="16" max="16" width="20.1428571428571" customWidth="1"/>
+    <col min="17" max="17" width="14.2857142857143" customWidth="1"/>
+    <col min="19" max="19" width="14.7142857142857" customWidth="1"/>
+    <col min="20" max="20" width="11.8571428571429" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="19.5703125" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" customWidth="1"/>
-    <col min="26" max="26" width="16.5703125" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" customWidth="1"/>
-    <col min="31" max="31" width="21.42578125" customWidth="1"/>
-    <col min="32" max="32" width="13.5703125" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" customWidth="1"/>
-    <col min="35" max="35" width="13.5703125" customWidth="1"/>
-    <col min="36" max="36" width="13.42578125" customWidth="1"/>
-    <col min="37" max="37" width="18.85546875" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" customWidth="1"/>
+    <col min="23" max="23" width="10.8571428571429" customWidth="1"/>
+    <col min="24" max="24" width="19.5714285714286" customWidth="1"/>
+    <col min="25" max="25" width="18.5714285714286" customWidth="1"/>
+    <col min="26" max="26" width="16.5714285714286" customWidth="1"/>
+    <col min="27" max="27" width="11.5714285714286" customWidth="1"/>
+    <col min="28" max="28" width="12.5714285714286" customWidth="1"/>
+    <col min="29" max="29" width="15.5714285714286" customWidth="1"/>
+    <col min="31" max="31" width="21.4285714285714" customWidth="1"/>
+    <col min="32" max="32" width="13.5714285714286" customWidth="1"/>
+    <col min="33" max="33" width="10.5714285714286" customWidth="1"/>
+    <col min="35" max="35" width="13.5714285714286" customWidth="1"/>
+    <col min="36" max="36" width="13.4285714285714" customWidth="1"/>
+    <col min="37" max="37" width="18.8571428571429" customWidth="1"/>
+    <col min="38" max="38" width="11.8571428571429" customWidth="1"/>
     <col min="39" max="39" width="11" customWidth="1"/>
     <col min="40" max="40" width="15" customWidth="1"/>
-    <col min="41" max="41" width="26.140625" customWidth="1"/>
-    <col min="42" max="42" width="11.140625" customWidth="1"/>
-    <col min="43" max="43" width="11.5703125" customWidth="1"/>
-    <col min="44" max="44" width="27.5703125" customWidth="1"/>
-    <col min="45" max="45" width="26.5703125" customWidth="1"/>
-    <col min="46" max="46" width="27.28515625" customWidth="1"/>
-    <col min="47" max="47" width="28.85546875" customWidth="1"/>
-    <col min="48" max="48" width="28.42578125" customWidth="1"/>
-    <col min="49" max="49" width="11.5703125" customWidth="1"/>
-    <col min="50" max="50" width="12.7109375" customWidth="1"/>
-    <col min="51" max="51" width="12.28515625" customWidth="1"/>
-    <col min="53" max="53" width="11.28515625" customWidth="1"/>
-    <col min="54" max="54" width="15.5703125" customWidth="1"/>
-    <col min="55" max="55" width="12.42578125" customWidth="1"/>
-    <col min="56" max="56" width="17.28515625" customWidth="1"/>
-    <col min="58" max="58" width="21.140625" customWidth="1"/>
-    <col min="59" max="59" width="12.5703125" customWidth="1"/>
-    <col min="60" max="60" width="14.42578125" customWidth="1"/>
+    <col min="41" max="41" width="26.1428571428571" customWidth="1"/>
+    <col min="42" max="42" width="11.1428571428571" customWidth="1"/>
+    <col min="43" max="43" width="11.5714285714286" customWidth="1"/>
+    <col min="44" max="44" width="27.5714285714286" customWidth="1"/>
+    <col min="45" max="45" width="26.5714285714286" customWidth="1"/>
+    <col min="46" max="46" width="27.2857142857143" customWidth="1"/>
+    <col min="47" max="47" width="28.8571428571429" customWidth="1"/>
+    <col min="48" max="48" width="28.4285714285714" customWidth="1"/>
+    <col min="49" max="49" width="11.5714285714286" customWidth="1"/>
+    <col min="50" max="50" width="12.7142857142857" customWidth="1"/>
+    <col min="51" max="51" width="12.2857142857143" customWidth="1"/>
+    <col min="53" max="53" width="11.2857142857143" customWidth="1"/>
+    <col min="54" max="54" width="15.5714285714286" customWidth="1"/>
+    <col min="55" max="55" width="12.4285714285714" customWidth="1"/>
+    <col min="56" max="56" width="17.2857142857143" customWidth="1"/>
+    <col min="58" max="58" width="21.1428571428571" customWidth="1"/>
+    <col min="59" max="59" width="12.5714285714286" customWidth="1"/>
+    <col min="60" max="60" width="14.4285714285714" customWidth="1"/>
     <col min="61" max="61" width="20" customWidth="1"/>
-    <col min="62" max="62" width="10.140625" customWidth="1"/>
-    <col min="63" max="63" width="25.42578125" customWidth="1"/>
-    <col min="64" max="64" width="21.42578125" customWidth="1"/>
-    <col min="65" max="65" width="28.140625" customWidth="1"/>
-    <col min="66" max="66" width="26.5703125" customWidth="1"/>
-    <col min="67" max="67" width="16.42578125" customWidth="1"/>
-    <col min="68" max="68" width="16.85546875" customWidth="1"/>
-    <col min="69" max="69" width="16.7109375" customWidth="1"/>
-    <col min="70" max="70" width="23.42578125" customWidth="1"/>
-    <col min="71" max="71" width="14.28515625" customWidth="1"/>
-    <col min="74" max="75" width="16.7109375" customWidth="1"/>
-    <col min="76" max="76" width="12.5703125" customWidth="1"/>
+    <col min="62" max="62" width="10.1428571428571" customWidth="1"/>
+    <col min="63" max="63" width="25.4285714285714" customWidth="1"/>
+    <col min="64" max="64" width="21.4285714285714" customWidth="1"/>
+    <col min="65" max="65" width="28.1428571428571" customWidth="1"/>
+    <col min="66" max="66" width="26.5714285714286" customWidth="1"/>
+    <col min="67" max="67" width="16.4285714285714" customWidth="1"/>
+    <col min="68" max="68" width="16.8571428571429" customWidth="1"/>
+    <col min="69" max="69" width="16.7142857142857" customWidth="1"/>
+    <col min="70" max="70" width="23.4285714285714" customWidth="1"/>
+    <col min="71" max="71" width="14.2857142857143" customWidth="1"/>
+    <col min="74" max="75" width="16.7142857142857" customWidth="1"/>
+    <col min="76" max="76" width="12.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" ht="25.5" spans="2:76">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,342 +1492,344 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BX63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="19.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="13.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="12.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="22.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="11.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="29.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="12.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="29.2857142857143" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" customWidth="1"/>
+    <col min="19" max="19" width="19.1428571428571" customWidth="1"/>
+    <col min="20" max="20" width="13.4285714285714" customWidth="1"/>
+    <col min="21" max="21" width="13.1428571428571" customWidth="1"/>
+    <col min="22" max="22" width="12.2857142857143" customWidth="1"/>
+    <col min="25" max="25" width="20.5714285714286" customWidth="1"/>
     <col min="26" max="26" width="20" customWidth="1"/>
-    <col min="27" max="27" width="13.7109375" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" customWidth="1"/>
+    <col min="27" max="27" width="13.7142857142857" customWidth="1"/>
+    <col min="28" max="28" width="11.7142857142857" customWidth="1"/>
     <col min="29" max="29" width="16" customWidth="1"/>
-    <col min="31" max="31" width="23.85546875" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" customWidth="1"/>
-    <col min="36" max="36" width="12.85546875" customWidth="1"/>
-    <col min="37" max="37" width="22.28515625" customWidth="1"/>
-    <col min="38" max="38" width="17.140625" customWidth="1"/>
-    <col min="39" max="39" width="11.42578125" customWidth="1"/>
+    <col min="31" max="31" width="23.8571428571429" customWidth="1"/>
+    <col min="32" max="32" width="15.5714285714286" customWidth="1"/>
+    <col min="33" max="33" width="13.1428571428571" customWidth="1"/>
+    <col min="35" max="35" width="15.4285714285714" customWidth="1"/>
+    <col min="36" max="36" width="12.8571428571429" customWidth="1"/>
+    <col min="37" max="37" width="22.2857142857143" customWidth="1"/>
+    <col min="38" max="38" width="17.1428571428571" customWidth="1"/>
+    <col min="39" max="39" width="11.4285714285714" customWidth="1"/>
     <col min="40" max="40" width="17" customWidth="1"/>
-    <col min="41" max="41" width="30.42578125" customWidth="1"/>
-    <col min="42" max="42" width="14.42578125" customWidth="1"/>
+    <col min="41" max="41" width="30.4285714285714" customWidth="1"/>
+    <col min="42" max="42" width="14.4285714285714" customWidth="1"/>
     <col min="43" max="43" width="14" customWidth="1"/>
     <col min="44" max="44" width="33" customWidth="1"/>
-    <col min="45" max="45" width="31.85546875" customWidth="1"/>
-    <col min="46" max="46" width="33.140625" customWidth="1"/>
-    <col min="47" max="47" width="30.28515625" customWidth="1"/>
-    <col min="48" max="48" width="30.85546875" customWidth="1"/>
-    <col min="49" max="49" width="13.28515625" customWidth="1"/>
-    <col min="50" max="50" width="17.85546875" customWidth="1"/>
-    <col min="51" max="51" width="11.85546875" customWidth="1"/>
-    <col min="53" max="53" width="12.42578125" customWidth="1"/>
-    <col min="54" max="54" width="23.5703125" customWidth="1"/>
-    <col min="55" max="55" width="16.85546875" customWidth="1"/>
-    <col min="56" max="56" width="22.140625" customWidth="1"/>
-    <col min="57" max="57" width="10.140625" customWidth="1"/>
-    <col min="58" max="58" width="24.7109375" customWidth="1"/>
-    <col min="59" max="59" width="15.140625" customWidth="1"/>
-    <col min="60" max="60" width="15.85546875" customWidth="1"/>
-    <col min="63" max="63" width="28.42578125" customWidth="1"/>
-    <col min="64" max="64" width="25.5703125" customWidth="1"/>
-    <col min="65" max="65" width="32.42578125" customWidth="1"/>
-    <col min="66" max="66" width="27.42578125" customWidth="1"/>
-    <col min="67" max="67" width="15.5703125" customWidth="1"/>
-    <col min="68" max="68" width="23.42578125" customWidth="1"/>
-    <col min="69" max="69" width="28.140625" customWidth="1"/>
-    <col min="70" max="70" width="25.7109375" customWidth="1"/>
-    <col min="71" max="71" width="15.28515625" customWidth="1"/>
-    <col min="74" max="74" width="18.7109375" customWidth="1"/>
-    <col min="75" max="75" width="26.7109375" customWidth="1"/>
-    <col min="76" max="76" width="15.85546875" customWidth="1"/>
+    <col min="45" max="45" width="31.8571428571429" customWidth="1"/>
+    <col min="46" max="46" width="33.1428571428571" customWidth="1"/>
+    <col min="47" max="47" width="30.2857142857143" customWidth="1"/>
+    <col min="48" max="48" width="30.8571428571429" customWidth="1"/>
+    <col min="49" max="49" width="13.2857142857143" customWidth="1"/>
+    <col min="50" max="50" width="17.8571428571429" customWidth="1"/>
+    <col min="51" max="51" width="11.8571428571429" customWidth="1"/>
+    <col min="53" max="53" width="12.4285714285714" customWidth="1"/>
+    <col min="54" max="54" width="23.5714285714286" customWidth="1"/>
+    <col min="55" max="55" width="16.8571428571429" customWidth="1"/>
+    <col min="56" max="56" width="22.1428571428571" customWidth="1"/>
+    <col min="57" max="57" width="10.1428571428571" customWidth="1"/>
+    <col min="58" max="58" width="24.7142857142857" customWidth="1"/>
+    <col min="59" max="59" width="15.1428571428571" customWidth="1"/>
+    <col min="60" max="60" width="15.8571428571429" customWidth="1"/>
+    <col min="63" max="63" width="28.4285714285714" customWidth="1"/>
+    <col min="64" max="64" width="25.5714285714286" customWidth="1"/>
+    <col min="65" max="65" width="32.4285714285714" customWidth="1"/>
+    <col min="66" max="66" width="27.4285714285714" customWidth="1"/>
+    <col min="67" max="67" width="15.5714285714286" customWidth="1"/>
+    <col min="68" max="68" width="23.4285714285714" customWidth="1"/>
+    <col min="69" max="69" width="28.1428571428571" customWidth="1"/>
+    <col min="70" max="70" width="25.7142857142857" customWidth="1"/>
+    <col min="71" max="71" width="15.2857142857143" customWidth="1"/>
+    <col min="74" max="74" width="18.7142857142857" customWidth="1"/>
+    <col min="75" max="75" width="26.7142857142857" customWidth="1"/>
+    <col min="76" max="76" width="15.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="24" customHeight="1" spans="2:76">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +2056,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:76" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1670,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1900,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2130,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2360,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2590,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:76" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" customHeight="1" spans="1:76">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2820,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3050,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:76">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3280,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3510,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:76">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3740,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="15.75" customHeight="1" spans="1:76">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3970,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:76">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4200,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:76">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -4430,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:76">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4660,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:76">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4887,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -5117,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -5347,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -5577,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -5807,7 +6423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -6037,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -6267,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -6497,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -6727,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -6957,158 +7573,160 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="16.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="10" width="29.140625" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="14.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="11.5714285714286" customWidth="1"/>
+    <col min="9" max="10" width="29.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="28.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="29.7142857142857" customWidth="1"/>
+    <col min="13" max="13" width="12.7142857142857" customWidth="1"/>
+    <col min="15" max="15" width="12.7142857142857" customWidth="1"/>
+    <col min="16" max="16" width="15.1428571428571" customWidth="1"/>
+    <col min="17" max="17" width="17.2857142857143" customWidth="1"/>
+    <col min="18" max="18" width="16.8571428571429" customWidth="1"/>
+    <col min="19" max="19" width="9.57142857142857" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="12.75" customHeight="1" spans="2:22">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
@@ -7173,7 +7791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.25" customHeight="1" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -7241,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -7252,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7309,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="12.75" customHeight="1" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -7377,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -7445,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -7453,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7513,7 +8131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -7581,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -7649,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="16.5" customHeight="1" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -7717,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="19.5" customHeight="1" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -7785,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" customHeight="1" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -7853,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -7921,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -7989,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -8057,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -8125,7 +8743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -8193,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -8261,7 +8879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -8329,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -8397,7 +9015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -8462,10 +9080,10 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -8533,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -8601,49 +9219,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -248,10 +249,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -271,6 +272,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -279,59 +287,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,6 +308,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -362,9 +325,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,7 +370,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,13 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,8 +399,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,7 +431,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,31 +503,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,37 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,13 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +569,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,61 +605,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,39 +622,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -697,6 +665,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -721,151 +713,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1748,7 +1749,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -7688,7 +7689,7 @@
       <c r="A63" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7696,10 +7697,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7724,9 +7725,10 @@
     <col min="20" max="20" width="16" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
     <col min="22" max="22" width="12.4285714285714" customWidth="1"/>
+    <col min="23" max="23" width="15.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" spans="2:22">
+    <row r="1" ht="12.75" customHeight="1" spans="2:23">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
@@ -7790,8 +7792,11 @@
       <c r="V1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:22">
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" spans="1:23">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -7858,8 +7863,11 @@
       <c r="V2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -7926,8 +7934,11 @@
       <c r="V3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:22">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -7994,8 +8005,11 @@
       <c r="V4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -8062,8 +8076,11 @@
       <c r="V5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -8130,8 +8147,11 @@
       <c r="V6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -8198,8 +8218,11 @@
       <c r="V7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -8266,8 +8289,11 @@
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" ht="16.5" customHeight="1" spans="1:22">
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -8334,8 +8360,11 @@
       <c r="V9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:22">
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -8402,8 +8431,11 @@
       <c r="V10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:22">
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -8470,8 +8502,11 @@
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -8538,8 +8573,11 @@
       <c r="V12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -8606,8 +8644,11 @@
       <c r="V13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -8674,8 +8715,11 @@
       <c r="V14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -8742,8 +8786,11 @@
       <c r="V15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -8810,8 +8857,11 @@
       <c r="V16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -8878,8 +8928,11 @@
       <c r="V17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -8946,8 +8999,11 @@
       <c r="V18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -9014,8 +9070,11 @@
       <c r="V19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -9082,8 +9141,11 @@
       <c r="V20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -9150,8 +9212,11 @@
       <c r="V21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -9218,6 +9283,80 @@
       <c r="V22">
         <v>0</v>
       </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1"/>
@@ -9262,7 +9401,23 @@
       <c r="A55" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -248,10 +248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -271,7 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,46 +285,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,6 +322,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -361,10 +346,32 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,17 +392,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,15 +406,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,13 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,19 +448,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,103 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,25 +562,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,18 +641,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,159 +706,166 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1748,7 +1748,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
@@ -7688,7 +7688,7 @@
       <c r="A63" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7699,7 +7699,7 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9219,6 +9219,74 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1"/>
     </row>
@@ -9262,7 +9330,7 @@
       <c r="A55" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.314583333333333" footer="0.314583333333333"/>
+  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.786805555555556" bottom="0.786805555555556" header="0.313888888888889" footer="0.313888888888889"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -248,8 +248,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;* #,##0_-;\-&quot;R$&quot;* #,##0_-;_-&quot;R$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -271,22 +271,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,13 +287,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,25 +316,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,15 +360,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,6 +391,35 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -430,13 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,7 +448,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,13 +472,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,31 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,13 +526,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,19 +568,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,37 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,21 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -646,21 +631,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,6 +659,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -703,169 +721,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7699,7 +7699,7 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8884,7 +8884,7 @@
         <v>66</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
